--- a/dtpu_configurations/only_integer16/50mhz/mxu_4x4/power.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_4x4/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.016844458878040314</v>
+        <v>0.02065546251833439</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.010074234567582607</v>
+        <v>0.00826701708137989</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.006713541224598885</v>
+        <v>0.006663590203970671</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.00421138247475028</v>
+        <v>0.004629326518625021</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.4969884432503022E-5</v>
+        <v>2.8616670533665456E-5</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0011022539110854268</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.1263350248336792</v>
+        <v>0.1273776888847351</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.425095796585083</v>
+        <v>1.4285238981246948</v>
       </c>
     </row>
   </sheetData>
